--- a/Code/ann_fit_dev.xlsx
+++ b/Code/ann_fit_dev.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="4">
   <si>
     <t>DE</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -99,11 +99,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -149,6 +153,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -161,108 +169,108 @@
   <dimension ref="A1:D7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.64382575506367823</v>
+        <v>1.6653345369377348e-16</v>
       </c>
       <c r="B2">
-        <v>0.10526946779650938</v>
+        <v>0.00039024087443277053</v>
       </c>
       <c r="C2">
-        <v>2.560894983776123</v>
+        <v>0.71208501836815685</v>
       </c>
       <c r="D2">
-        <v>1.1176607566806094</v>
+        <v>0.11256956511896546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20.859784927754578</v>
+        <v>2.5871192822616855</v>
       </c>
       <c r="B3">
-        <v>5.9282109291162035</v>
+        <v>2.1398971139993455</v>
       </c>
       <c r="C3">
-        <v>2.4037134663214261</v>
+        <v>2.1110899741868061</v>
       </c>
       <c r="D3">
-        <v>9.2784463160546835</v>
+        <v>1.2626866284715443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>89.561969894675286</v>
+        <v>0.00055337450657728536</v>
       </c>
       <c r="B4">
-        <v>406.94325284109357</v>
+        <v>1.9695715667109301</v>
       </c>
       <c r="C4">
-        <v>428.81564260343646</v>
+        <v>2378.1870886150346</v>
       </c>
       <c r="D4">
-        <v>533.24016516732217</v>
+        <v>2.1068238163046704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>7.2809539099370024</v>
+        <v>215.92192985282543</v>
       </c>
       <c r="B5">
-        <v>102.90379852270786</v>
+        <v>48.38048756334053</v>
       </c>
       <c r="C5">
-        <v>223.7938140857265</v>
+        <v>624.24741383168168</v>
       </c>
       <c r="D5">
-        <v>79.872610531947871</v>
+        <v>109.98122488732216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>472.93903745449734</v>
+        <v>70946.826393813899</v>
       </c>
       <c r="B6">
-        <v>1400.6570214735052</v>
+        <v>6863.1378657088489</v>
       </c>
       <c r="C6">
-        <v>868.47364350830696</v>
+        <v>2589.0865319946361</v>
       </c>
       <c r="D6">
-        <v>438.20971874897464</v>
+        <v>12671.430750812266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1.2837897306118278</v>
+        <v>0.48089435288360943</v>
       </c>
       <c r="B7">
-        <v>23.035958814847568</v>
+        <v>1.9289323588392822</v>
       </c>
       <c r="C7">
-        <v>25.556452441782913</v>
+        <v>2.677798456248111</v>
       </c>
       <c r="D7">
-        <v>7.1843228532050691</v>
+        <v>5.9024466231053818</v>
       </c>
     </row>
   </sheetData>
